--- a/data/trans_orig/P45C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>375149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>355271</v>
+        <v>354807</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393062</v>
+        <v>393386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7619266898615917</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7215547525013215</v>
+        <v>0.7206126108122088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7983085658797007</v>
+        <v>0.798966141394855</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>351</v>
@@ -765,19 +765,19 @@
         <v>339443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>319100</v>
+        <v>320760</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>356330</v>
+        <v>357289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7289059141682347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6852215413977357</v>
+        <v>0.6887864118019112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7651683067194552</v>
+        <v>0.7672262770825581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>732</v>
@@ -786,19 +786,19 @@
         <v>714593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>687375</v>
+        <v>686133</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>739040</v>
+        <v>739400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.745876072137809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7174665863072485</v>
+        <v>0.7161706834514227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7713937426269348</v>
+        <v>0.7717700034242692</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>103877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86437</v>
+        <v>86949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121302</v>
+        <v>122280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2109740884255557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1755542805098368</v>
+        <v>0.1765924056143588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2463649868534386</v>
+        <v>0.2483499435470294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -836,19 +836,19 @@
         <v>118520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100665</v>
+        <v>100900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138922</v>
+        <v>136708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2545052892066962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.216164595247773</v>
+        <v>0.2166671490891294</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2983155824350796</v>
+        <v>0.2935616589892082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>232</v>
@@ -857,19 +857,19 @@
         <v>222397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198703</v>
+        <v>198653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247658</v>
+        <v>249968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2321335750858246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2074019976881628</v>
+        <v>0.2073499837439912</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2585001002466323</v>
+        <v>0.2609107422089497</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>13343</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6851</v>
+        <v>6935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22661</v>
+        <v>23978</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02709922171285254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0139139276646961</v>
+        <v>0.01408558637480273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04602369318481699</v>
+        <v>0.04869931394425342</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>7725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3109</v>
+        <v>3854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14668</v>
+        <v>15300</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01658879662506901</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006676964907354367</v>
+        <v>0.008275725310286627</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03149690649030391</v>
+        <v>0.03285404578100076</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -928,19 +928,19 @@
         <v>21068</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12219</v>
+        <v>13424</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32701</v>
+        <v>33443</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02199035277636637</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01275359910750103</v>
+        <v>0.01401146530741544</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03413260279589406</v>
+        <v>0.03490713872465165</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>579015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553308</v>
+        <v>554685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>600407</v>
+        <v>600276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7892914011168142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7542480587743716</v>
+        <v>0.7561254188719169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8184513806672321</v>
+        <v>0.818273504614476</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1053,19 +1053,19 @@
         <v>508733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488147</v>
+        <v>488389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527488</v>
+        <v>528921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.814828550845953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818570755206604</v>
+        <v>0.7822454369513766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8448681687181169</v>
+        <v>0.8471633805952176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -1074,19 +1074,19 @@
         <v>1087747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1057559</v>
+        <v>1055091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1116554</v>
+        <v>1115022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8010327440976938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7788016891449885</v>
+        <v>0.7769845903931276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8222467800809493</v>
+        <v>0.8211181092453383</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>140272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>120666</v>
+        <v>120434</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163143</v>
+        <v>163469</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1912126803773866</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1644872270438577</v>
+        <v>0.164170703716186</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2223900605779023</v>
+        <v>0.2228339805139784</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>101</v>
@@ -1124,19 +1124,19 @@
         <v>104103</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>85292</v>
+        <v>85352</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>122928</v>
+        <v>124198</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1667396627269626</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1366104708276317</v>
+        <v>0.1367065960815474</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.196891633230011</v>
+        <v>0.1989256632553023</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>243</v>
@@ -1145,19 +1145,19 @@
         <v>244374</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>216276</v>
+        <v>216382</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>272221</v>
+        <v>275071</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1799605987215048</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1592689873182317</v>
+        <v>0.1593469535844803</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2004675798383112</v>
+        <v>0.20256640921203</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>14302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8040</v>
+        <v>8077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23084</v>
+        <v>23689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01949591850579922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01095979108632334</v>
+        <v>0.01100965362144624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03146704899691073</v>
+        <v>0.03229244049693647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>11508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5897</v>
+        <v>5830</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19255</v>
+        <v>20563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01843178642708447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009444400424043277</v>
+        <v>0.009338532615790878</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03083981492417447</v>
+        <v>0.03293492124860189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1216,19 +1216,19 @@
         <v>25810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17140</v>
+        <v>17158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37260</v>
+        <v>37057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01900665718080139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0126224449117073</v>
+        <v>0.01263547256140261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02743905079481556</v>
+        <v>0.02728966246843031</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>543764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>523777</v>
+        <v>524353</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>561266</v>
+        <v>561727</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8524874340706974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.821152955038592</v>
+        <v>0.8220560906552808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8799259606466519</v>
+        <v>0.8806485461552197</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>581</v>
@@ -1341,19 +1341,19 @@
         <v>609805</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>592545</v>
+        <v>590005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>626073</v>
+        <v>624847</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8853613001168026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8603026190073508</v>
+        <v>0.8566143596640262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9089801524644318</v>
+        <v>0.9072002155491754</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1100</v>
@@ -1362,19 +1362,19 @@
         <v>1153569</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1125704</v>
+        <v>1129325</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1176538</v>
+        <v>1179416</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8695551293399525</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.848550772071368</v>
+        <v>0.851280191559446</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8868686120989639</v>
+        <v>0.8890381655225773</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>88229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70988</v>
+        <v>70895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108395</v>
+        <v>107234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1383212644204269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1112917163632068</v>
+        <v>0.1111460075923209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1699367322600491</v>
+        <v>0.1681165242494736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1412,19 +1412,19 @@
         <v>60987</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46032</v>
+        <v>48104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76738</v>
+        <v>77971</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08854588781492985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0668332786393698</v>
+        <v>0.06984127589629267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1114146549309553</v>
+        <v>0.1132044160436143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -1433,19 +1433,19 @@
         <v>149216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127520</v>
+        <v>125786</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175710</v>
+        <v>172735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1124785187383842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09612429557464502</v>
+        <v>0.09481721374847439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1324493626865962</v>
+        <v>0.1302066379075178</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>5863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2027</v>
+        <v>2010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12510</v>
+        <v>12475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009191301508875658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003178550624179679</v>
+        <v>0.003150821676724037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01961318151725259</v>
+        <v>0.0195577509621284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1483,19 +1483,19 @@
         <v>17972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11048</v>
+        <v>10470</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29148</v>
+        <v>28607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02609281206826759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01604065729644137</v>
+        <v>0.01520164769761287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04231920577463053</v>
+        <v>0.04153430869871835</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1504,19 +1504,19 @@
         <v>23835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15465</v>
+        <v>15236</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35775</v>
+        <v>35312</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01796635192166327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01165763559642158</v>
+        <v>0.01148520263964975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02696682337098956</v>
+        <v>0.02661795259161514</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>435103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>415987</v>
+        <v>416361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>451653</v>
+        <v>451738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8399705634439052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.803066002597235</v>
+        <v>0.8037896467530207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8719194286306072</v>
+        <v>0.872085124434445</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>451</v>
@@ -1629,19 +1629,19 @@
         <v>462995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>448697</v>
+        <v>447143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>475862</v>
+        <v>475286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9014418679944245</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8736049080426996</v>
+        <v>0.8705788913170783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9264937977215451</v>
+        <v>0.9253726322880304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>858</v>
@@ -1650,19 +1650,19 @@
         <v>898098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>874447</v>
+        <v>875389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>917663</v>
+        <v>920550</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8705756435830395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8476492527780237</v>
+        <v>0.8485629955137668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8895413652888265</v>
+        <v>0.8923392477253146</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>71338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55218</v>
+        <v>55868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90143</v>
+        <v>88824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1377181126724568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1065980683150211</v>
+        <v>0.1078534277223727</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1740219390154416</v>
+        <v>0.1714758180953682</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1700,19 +1700,19 @@
         <v>42175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30202</v>
+        <v>30942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56053</v>
+        <v>57407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08211471056758778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05880242027773613</v>
+        <v>0.06024368671851778</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1091331136044279</v>
+        <v>0.1117710830854381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>106</v>
@@ -1721,19 +1721,19 @@
         <v>113513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94615</v>
+        <v>93385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134608</v>
+        <v>135505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1100345196550113</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09171554431434943</v>
+        <v>0.09052330280429233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1304832223310604</v>
+        <v>0.1313524094436312</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>11557</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5909</v>
+        <v>6080</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21243</v>
+        <v>20831</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02231132388363799</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01140801523339574</v>
+        <v>0.01173822909443516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04100890041674412</v>
+        <v>0.04021474246661453</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1771,19 +1771,19 @@
         <v>8446</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4099</v>
+        <v>3844</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15054</v>
+        <v>16749</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01644342143798769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007980781865259103</v>
+        <v>0.007483371174811016</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02930897175601906</v>
+        <v>0.03260974939130237</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1792,19 +1792,19 @@
         <v>20003</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12503</v>
+        <v>12219</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31483</v>
+        <v>30797</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01938983676194924</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01211971428742007</v>
+        <v>0.01184450482009204</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03051836435467097</v>
+        <v>0.02985308146766191</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>348434</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>335958</v>
+        <v>335652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>358767</v>
+        <v>358637</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9035148226260872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8711631275674204</v>
+        <v>0.8703687589774858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9303089096648871</v>
+        <v>0.9299708824195002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>368</v>
@@ -1917,19 +1917,19 @@
         <v>375770</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>363932</v>
+        <v>364186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>385444</v>
+        <v>384345</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9301564818925374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9008536662463228</v>
+        <v>0.9014809960466921</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9541026008428948</v>
+        <v>0.9513827492003911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>721</v>
@@ -1938,19 +1938,19 @@
         <v>724204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>706723</v>
+        <v>707256</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>737395</v>
+        <v>737628</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9171450926125072</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8950065968522409</v>
+        <v>0.8956815506687891</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9338501982889424</v>
+        <v>0.9341443926254894</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>32254</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22474</v>
+        <v>22373</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44192</v>
+        <v>44876</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08363717374032648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05827695451822438</v>
+        <v>0.05801382478069845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1145936958129996</v>
+        <v>0.1163663230046815</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1988,19 +1988,19 @@
         <v>21307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13603</v>
+        <v>13683</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32189</v>
+        <v>31618</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05274158160024744</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03367155148730783</v>
+        <v>0.03386906861531613</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07967943221929596</v>
+        <v>0.07826460677734767</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -2009,19 +2009,19 @@
         <v>53561</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40915</v>
+        <v>40837</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69911</v>
+        <v>68433</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06783052828900862</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05181588911267721</v>
+        <v>0.05171664977225941</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08853637437062528</v>
+        <v>0.08666465771262992</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>4955</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1900</v>
+        <v>1953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10995</v>
+        <v>11023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01284800363358639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004927923086578918</v>
+        <v>0.005064380223251579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02851059435175211</v>
+        <v>0.02858398364926508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2059,19 +2059,19 @@
         <v>6909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3008</v>
+        <v>2942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13512</v>
+        <v>13091</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01710193650721515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007446074349880638</v>
+        <v>0.007283510946346328</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03344754462110857</v>
+        <v>0.03240453168399399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2080,19 +2080,19 @@
         <v>11864</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6701</v>
+        <v>6089</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20060</v>
+        <v>19590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01502437909848413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008486252208293982</v>
+        <v>0.007711631816856523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02540386031688521</v>
+        <v>0.02480937640616415</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>276004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>267603</v>
+        <v>266392</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>283048</v>
+        <v>282493</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9467540690576047</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9179371460412613</v>
+        <v>0.9137825449177533</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9709147693116781</v>
+        <v>0.969011804132767</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>355</v>
@@ -2205,19 +2205,19 @@
         <v>328233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>319700</v>
+        <v>319490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>333875</v>
+        <v>334546</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9571322259326671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9322490628527657</v>
+        <v>0.9316366953255412</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9735839059358961</v>
+        <v>0.9755403940729016</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>642</v>
@@ -2226,19 +2226,19 @@
         <v>604238</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>593665</v>
+        <v>592281</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>614893</v>
+        <v>613208</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.952363590291461</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9356998125498283</v>
+        <v>0.9335176925445628</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9691587714201872</v>
+        <v>0.9665018745422773</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>13195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6986</v>
+        <v>7659</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21015</v>
+        <v>22988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04526239882320607</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02396489110940049</v>
+        <v>0.02627186901384874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07208479070678162</v>
+        <v>0.07885245729446841</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2276,19 +2276,19 @@
         <v>11983</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6651</v>
+        <v>6594</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19943</v>
+        <v>19506</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03494158952268988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01939462464016747</v>
+        <v>0.01922940890822143</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05815418085055982</v>
+        <v>0.05687971237286453</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -2297,19 +2297,19 @@
         <v>25178</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16465</v>
+        <v>17185</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34781</v>
+        <v>36231</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03968387465761532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0259514892395807</v>
+        <v>0.02708554237074898</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0548196199809037</v>
+        <v>0.05710552924402896</v>
       </c>
     </row>
     <row r="26">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7834</v>
+        <v>8471</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007983532119189254</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02687131342587252</v>
+        <v>0.02905688525223124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>2718</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7842</v>
+        <v>8209</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007926184544643059</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002488896348717581</v>
+        <v>0.002485638756070043</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0228679556139663</v>
+        <v>0.02393725839112531</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2368,19 +2368,19 @@
         <v>5046</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1694</v>
+        <v>1788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11286</v>
+        <v>12826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007952535050923691</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002669925050697512</v>
+        <v>0.002818145940553083</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0177889794968439</v>
+        <v>0.02021538588776617</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>197928</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>188403</v>
+        <v>189392</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>203445</v>
+        <v>203304</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9430382738389177</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8976582803458164</v>
+        <v>0.9023686227898376</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9693281476906573</v>
+        <v>0.9686553693154513</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>284</v>
@@ -2493,19 +2493,19 @@
         <v>327078</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>320111</v>
+        <v>321157</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>330446</v>
+        <v>330500</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9861623909320374</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9651571268378178</v>
+        <v>0.9683116872918387</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9963185782202033</v>
+        <v>0.9964818213779497</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>492</v>
@@ -2514,19 +2514,19 @@
         <v>525005</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>515106</v>
+        <v>515668</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>532061</v>
+        <v>531758</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9694492070467903</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9511702601173473</v>
+        <v>0.9522068944071995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9824780577040099</v>
+        <v>0.9819185930769114</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>9161</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4499</v>
+        <v>4537</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18128</v>
+        <v>16578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04364883089342604</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02143716553810254</v>
+        <v>0.02161767062061569</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08637132026546647</v>
+        <v>0.07898470560665038</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2564,19 +2564,19 @@
         <v>3516</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9492</v>
+        <v>9363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01060053756231478</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003388516703369102</v>
+        <v>0.003381123627117181</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02861928896991123</v>
+        <v>0.02823157296240336</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2585,19 +2585,19 @@
         <v>12677</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6377</v>
+        <v>6503</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22127</v>
+        <v>20780</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02340873494160842</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01177493311817694</v>
+        <v>0.01200900126694058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04085814067612587</v>
+        <v>0.03837171335361235</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>2794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7678</v>
+        <v>7351</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01331289526765625</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0</v>
+        <v>0.003925071357882647</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0365825829201232</v>
+        <v>0.03502346239066481</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6042</v>
+        <v>5164</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003237071505647855</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01821662910623781</v>
+        <v>0.01557070667197358</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2656,19 +2656,19 @@
         <v>3868</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>978</v>
+        <v>1066</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10008</v>
+        <v>9661</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007142058011601296</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0018063914554777</v>
+        <v>0.001968210476530651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01848050729708171</v>
+        <v>0.01783876339668601</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2755397</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2868</v>
@@ -2781,19 +2781,19 @@
         <v>2952057</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5568</v>
@@ -2802,19 +2802,19 @@
         <v>5707455</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>458326</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>419808</v>
+        <v>417068</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>496440</v>
+        <v>493669</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1402094533985785</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1284261504445329</v>
+        <v>0.1275879382582348</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1518694112337022</v>
+        <v>0.1510214369556856</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>366</v>
@@ -2852,19 +2852,19 @@
         <v>362591</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>327557</v>
+        <v>325958</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>399783</v>
+        <v>396727</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1075619320311465</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09716899550954909</v>
+        <v>0.09669465640391395</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.118594842445291</v>
+        <v>0.1176882421659786</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>820</v>
@@ -2873,19 +2873,19 @@
         <v>820917</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>766444</v>
+        <v>770629</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>875041</v>
+        <v>876645</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1236345998823088</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1154306701881739</v>
+        <v>0.1160608868160219</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1317859100334986</v>
+        <v>0.1320275093142461</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>55141</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01686856630157643</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>55</v>
@@ -2923,19 +2923,19 @@
         <v>56351</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01671644130145013</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>107</v>
@@ -2944,19 +2944,19 @@
         <v>111492</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01679133380466255</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>307752</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>285759</v>
+        <v>286162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>326313</v>
+        <v>326246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6828902752108148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6340893714383763</v>
+        <v>0.6349834939242484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7240765579044139</v>
+        <v>0.7239286956019209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>290</v>
@@ -3312,19 +3312,19 @@
         <v>298159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>279851</v>
+        <v>277326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316306</v>
+        <v>314785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6998579907493458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6568845431517457</v>
+        <v>0.6509583507236951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7424546701532018</v>
+        <v>0.738882429237985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>590</v>
@@ -3333,19 +3333,19 @@
         <v>605911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>577219</v>
+        <v>577860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>630650</v>
+        <v>631015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6911357515826317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6584076279295864</v>
+        <v>0.6591392395619291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7193543277523595</v>
+        <v>0.7197710382394349</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>137039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118815</v>
+        <v>117835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160054</v>
+        <v>158108</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3040844974444539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2636452215902072</v>
+        <v>0.2614714454016415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3551541335717366</v>
+        <v>0.3508362365662896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -3383,19 +3383,19 @@
         <v>120007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102350</v>
+        <v>103399</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>138774</v>
+        <v>140505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2816869216750881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2402420957621061</v>
+        <v>0.2427050743525961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3257388785685743</v>
+        <v>0.3298011171885569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>257</v>
@@ -3404,19 +3404,19 @@
         <v>257046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232057</v>
+        <v>233779</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286010</v>
+        <v>284985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.293200375691416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2646974673907754</v>
+        <v>0.2666609318322846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3262383084619803</v>
+        <v>0.3250699941980672</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>5870</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2339</v>
+        <v>2047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11876</v>
+        <v>12450</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01302522734473122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005190870781012589</v>
+        <v>0.004542005259002804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02635241205928687</v>
+        <v>0.02762514191688244</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3454,19 +3454,19 @@
         <v>7862</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3106</v>
+        <v>3174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16131</v>
+        <v>16569</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01845508757556606</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00729103668204329</v>
+        <v>0.007450592043475636</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03786444705310973</v>
+        <v>0.03889286444404976</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -3475,19 +3475,19 @@
         <v>13732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7575</v>
+        <v>7570</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22568</v>
+        <v>24135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01566387272595223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008640629692320014</v>
+        <v>0.008635093444166499</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02574258367137738</v>
+        <v>0.02752977991906775</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>513857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487403</v>
+        <v>488725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>535503</v>
+        <v>535518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7531003842170713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7143293963056747</v>
+        <v>0.7162677512783259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7848241140331106</v>
+        <v>0.7848461250921225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>485</v>
@@ -3600,19 +3600,19 @@
         <v>519281</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>501225</v>
+        <v>499006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536107</v>
+        <v>536027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8536211406450571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8239404430673749</v>
+        <v>0.8202915992054891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8812816237564064</v>
+        <v>0.8811491119358986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>981</v>
@@ -3621,19 +3621,19 @@
         <v>1033138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005931</v>
+        <v>1001781</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1062467</v>
+        <v>1061791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8004792557661297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7793991530191586</v>
+        <v>0.7761836653264592</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8232033517877534</v>
+        <v>0.8226801597684202</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>150058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>127209</v>
+        <v>129825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172794</v>
+        <v>173461</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.219923143976584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1864348953020681</v>
+        <v>0.1902696408981164</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.253244162492521</v>
+        <v>0.2542213582951974</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>75</v>
@@ -3671,19 +3671,19 @@
         <v>80201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64937</v>
+        <v>64826</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98404</v>
+        <v>98950</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.131838802570684</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1067475572797007</v>
+        <v>0.106563580187509</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1617616138211243</v>
+        <v>0.1626594279929925</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>224</v>
@@ -3692,19 +3692,19 @@
         <v>230260</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>203743</v>
+        <v>203949</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>258897</v>
+        <v>260724</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1784059803055827</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.15786092196366</v>
+        <v>0.1580206807475849</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2005942723732735</v>
+        <v>0.2020101518895601</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>18407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10986</v>
+        <v>10704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29691</v>
+        <v>29531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02697647180634477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0161013216868561</v>
+        <v>0.01568713379943736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04351457491348994</v>
+        <v>0.04328049042860301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3742,19 +3742,19 @@
         <v>8845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4002</v>
+        <v>4061</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15511</v>
+        <v>15722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01454005678425891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006578482351160104</v>
+        <v>0.006676041484006824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02549761724590974</v>
+        <v>0.02584512813220209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3763,19 +3763,19 @@
         <v>27252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17729</v>
+        <v>18169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39919</v>
+        <v>39647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02111476392828764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01373611868749752</v>
+        <v>0.01407771010543492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03092931163266637</v>
+        <v>0.03071885695657523</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>567119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>545901</v>
+        <v>544277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>585202</v>
+        <v>586133</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8352009820148685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8039536680859125</v>
+        <v>0.8015606579450839</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8618317745749349</v>
+        <v>0.8632027742518735</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>562</v>
@@ -3888,19 +3888,19 @@
         <v>596356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>575330</v>
+        <v>577056</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>613865</v>
+        <v>616983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.846546920449033</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.816699695989199</v>
+        <v>0.8191497293206852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8714016718368656</v>
+        <v>0.8758278385153128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1104</v>
@@ -3909,19 +3909,19 @@
         <v>1163475</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1136629</v>
+        <v>1131973</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1189568</v>
+        <v>1192014</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8409782481459964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.821573257349447</v>
+        <v>0.8182082679264271</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8598385511013247</v>
+        <v>0.861606498445156</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>107947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90109</v>
+        <v>90365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128623</v>
+        <v>130969</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1589751561552782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1327042592379828</v>
+        <v>0.1330806742455274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1894241919625583</v>
+        <v>0.1928789198107776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -3959,19 +3959,19 @@
         <v>92735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74572</v>
+        <v>74582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110937</v>
+        <v>112090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1316397925054794</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1058572768233618</v>
+        <v>0.1058717964669573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1574793308197822</v>
+        <v>0.1591157106598099</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -3980,19 +3980,19 @@
         <v>200682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173664</v>
+        <v>174657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>226281</v>
+        <v>229540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1450561955058432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1255269433581904</v>
+        <v>0.126245020630548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1635592156908624</v>
+        <v>0.1659153465335784</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>3955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11088</v>
+        <v>10393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005823861829853373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001402406964306684</v>
+        <v>0.001400672979852575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01632944373259699</v>
+        <v>0.01530556507471412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4030,19 +4030,19 @@
         <v>15367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8684</v>
+        <v>8754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25657</v>
+        <v>25175</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02181328704548752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01232661378566254</v>
+        <v>0.01242638491073646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03642141854195521</v>
+        <v>0.03573626951606243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -4051,19 +4051,19 @@
         <v>19321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11347</v>
+        <v>11651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29650</v>
+        <v>32566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01396555634816039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008202127495181451</v>
+        <v>0.008421835353233813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02143114384785966</v>
+        <v>0.02353940299113111</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>506737</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>485658</v>
+        <v>486848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>524667</v>
+        <v>523369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8330777229816542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7984234922765668</v>
+        <v>0.8003802732870047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8625538739597803</v>
+        <v>0.8604211256777732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>471</v>
@@ -4176,19 +4176,19 @@
         <v>541296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>523710</v>
+        <v>523287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>555158</v>
+        <v>557834</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8845797653859742</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8558398175314327</v>
+        <v>0.8551495084038681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9072329055518519</v>
+        <v>0.9116048767886599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>916</v>
@@ -4197,19 +4197,19 @@
         <v>1048034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1019298</v>
+        <v>1019724</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1071515</v>
+        <v>1071797</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8589058675775691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8353557177129094</v>
+        <v>0.8357052465925093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8781501840682351</v>
+        <v>0.8783809384907262</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>91891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73437</v>
+        <v>76049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111478</v>
+        <v>111411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.151069611568047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1207307570130541</v>
+        <v>0.1250251520302802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.183270373219313</v>
+        <v>0.18315963920359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -4247,19 +4247,19 @@
         <v>56892</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44516</v>
+        <v>42285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73338</v>
+        <v>73215</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09297200552742739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07274781785057423</v>
+        <v>0.06910086109677131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1198481815689442</v>
+        <v>0.1196465169489054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -4268,19 +4268,19 @@
         <v>148783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126398</v>
+        <v>126080</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>174591</v>
+        <v>173985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1219338084145829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1035881360610039</v>
+        <v>0.1033272673932595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1430844811920159</v>
+        <v>0.1425880965188463</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>9643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4317</v>
+        <v>4152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18122</v>
+        <v>16975</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01585266545029887</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007097617138955517</v>
+        <v>0.006825438294854219</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02979317453368755</v>
+        <v>0.02790771486800236</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4318,19 +4318,19 @@
         <v>13737</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7665</v>
+        <v>7287</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22398</v>
+        <v>21520</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02244822908659841</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01252573040123901</v>
+        <v>0.01190911960048515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03660230294664781</v>
+        <v>0.03516804458182819</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -4339,19 +4339,19 @@
         <v>23379</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15556</v>
+        <v>14829</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34040</v>
+        <v>35199</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01916032400784793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01274874685912627</v>
+        <v>0.01215300671569817</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02789744685197065</v>
+        <v>0.02884698492702012</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>384234</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>371675</v>
+        <v>369553</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>396479</v>
+        <v>395756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8990923182064441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8697040691125375</v>
+        <v>0.8647395585245596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9277454955553509</v>
+        <v>0.9260527922477461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>365</v>
@@ -4464,19 +4464,19 @@
         <v>404158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>390456</v>
+        <v>388993</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415358</v>
+        <v>414784</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9068747969074832</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8761298203092861</v>
+        <v>0.8728459190251243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9320059892686395</v>
+        <v>0.9307188087860544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -4485,19 +4485,19 @@
         <v>788392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>771186</v>
+        <v>769693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>804529</v>
+        <v>804030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9030651358957346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8833569191208998</v>
+        <v>0.881646753278636</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9215494829288865</v>
+        <v>0.9209779337777004</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>39899</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28787</v>
+        <v>28885</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52196</v>
+        <v>53630</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09336243676046095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06736010702620621</v>
+        <v>0.06758999269505056</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1221358497483973</v>
+        <v>0.1254926312054277</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>35</v>
@@ -4535,19 +4535,19 @@
         <v>37069</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26286</v>
+        <v>27321</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50237</v>
+        <v>52079</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08317866400440513</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05898196213055651</v>
+        <v>0.06130568887672368</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1127257990653485</v>
+        <v>0.1168578970391869</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>74</v>
@@ -4556,19 +4556,19 @@
         <v>76969</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>61801</v>
+        <v>62050</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92625</v>
+        <v>94666</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08816380093977177</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07078997572208685</v>
+        <v>0.07107557169131937</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1060977091178732</v>
+        <v>0.1084353089560541</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>3225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8830</v>
+        <v>9696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007545245033094953</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002170548240303745</v>
+        <v>0.002194834774683521</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02066070407119735</v>
+        <v>0.02268815630763681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4606,19 +4606,19 @@
         <v>4433</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10829</v>
+        <v>10002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009946539088111677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002388105473560511</v>
+        <v>0.002389056535537546</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02429973682347996</v>
+        <v>0.02244212948422278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -4627,19 +4627,19 @@
         <v>7657</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3338</v>
+        <v>3312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15921</v>
+        <v>15035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008771063164493708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003823470720905615</v>
+        <v>0.003793607934126679</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01823666923262046</v>
+        <v>0.01722130537040773</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>284286</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>274826</v>
+        <v>272836</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>292856</v>
+        <v>291536</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9264763731669957</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8956443229902102</v>
+        <v>0.8891607139281071</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9544049748316591</v>
+        <v>0.9501028575770939</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>320</v>
@@ -4752,19 +4752,19 @@
         <v>328815</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>319050</v>
+        <v>318052</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>336401</v>
+        <v>337301</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9420528763411471</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9140748766003924</v>
+        <v>0.9112161093994543</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9637867756820657</v>
+        <v>0.9663640516222192</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>577</v>
@@ -4773,19 +4773,19 @@
         <v>613102</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>599316</v>
+        <v>597436</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>625581</v>
+        <v>624388</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9347656488504442</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9137479813525777</v>
+        <v>0.9108809587650716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9537931618704872</v>
+        <v>0.9519736398922624</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>19647</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11860</v>
+        <v>12927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29291</v>
+        <v>31005</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06402799383635242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03865213986947999</v>
+        <v>0.04212950287482535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09545939472590033</v>
+        <v>0.1010429018482278</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -4823,19 +4823,19 @@
         <v>16394</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9791</v>
+        <v>8734</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26583</v>
+        <v>26201</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04696963327735773</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02805161093553731</v>
+        <v>0.02502333284701536</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07616066148126052</v>
+        <v>0.07506455046299082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -4844,19 +4844,19 @@
         <v>36041</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25349</v>
+        <v>26266</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50232</v>
+        <v>49005</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05495012495909233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03864902198533741</v>
+        <v>0.04004703435761583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07658563276476536</v>
+        <v>0.07471484797739647</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>2914</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7812</v>
+        <v>7999</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009495632996651878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003037887610707121</v>
+        <v>0.003101699065866121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02545909712393625</v>
+        <v>0.02606768950624493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4894,19 +4894,19 @@
         <v>3832</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9605</v>
+        <v>9556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01097749038149517</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002881047328618015</v>
+        <v>0.002820758989378417</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02751800245022357</v>
+        <v>0.02737854691769518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4915,19 +4915,19 @@
         <v>6745</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2866</v>
+        <v>2824</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12421</v>
+        <v>13442</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01028422619046345</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00437005374359198</v>
+        <v>0.004306143244093662</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01893698315946949</v>
+        <v>0.02049501387672623</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>237157</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>229687</v>
+        <v>229703</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>241415</v>
+        <v>241395</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9696973953691482</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.939154567386818</v>
+        <v>0.9392198659007974</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9871061608115574</v>
+        <v>0.9870267219257116</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>324</v>
@@ -5040,19 +5040,19 @@
         <v>360673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>350662</v>
+        <v>351095</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>367250</v>
+        <v>367268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9541858974772893</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9277024963843328</v>
+        <v>0.9288478047987329</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9715872747072484</v>
+        <v>0.9716344937425118</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>534</v>
@@ -5061,19 +5061,19 @@
         <v>597830</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>586654</v>
+        <v>585712</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>606455</v>
+        <v>605574</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9602794871246531</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9423275156738536</v>
+        <v>0.9408145282263636</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9741344393489045</v>
+        <v>0.9727195749912143</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>7411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3153</v>
+        <v>3173</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14881</v>
+        <v>14865</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03030260463085183</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0128938391884426</v>
+        <v>0.01297327807428833</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06084543261318225</v>
+        <v>0.06078013409920264</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -5111,19 +5111,19 @@
         <v>15132</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8563</v>
+        <v>8592</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23945</v>
+        <v>23928</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04003317874401883</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02265384034488779</v>
+        <v>0.0227304691680245</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06334944898887795</v>
+        <v>0.06330393118661763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -5132,19 +5132,19 @@
         <v>22543</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14090</v>
+        <v>14912</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>33387</v>
+        <v>33666</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03621058687750287</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02263199113695082</v>
+        <v>0.02395316191993237</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05362822091224807</v>
+        <v>0.05407709317216739</v>
       </c>
     </row>
     <row r="30">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6684</v>
+        <v>7697</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005780923778691792</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01768260062650807</v>
+        <v>0.02036392769793167</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7674</v>
+        <v>7120</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003509925997844132</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01232726884670864</v>
+        <v>0.01143631747865165</v>
       </c>
     </row>
     <row r="31">
@@ -5299,19 +5299,19 @@
         <v>2801142</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2817</v>
@@ -5320,19 +5320,19 @@
         <v>3048737</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5416</v>
@@ -5341,19 +5341,19 @@
         <v>5849880</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="33">
@@ -5370,19 +5370,19 @@
         <v>553893</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>513822</v>
+        <v>510064</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>600327</v>
+        <v>597433</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1629554196155028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1511666249108851</v>
+        <v>0.1500608398341291</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1766162226127613</v>
+        <v>0.1757647683585415</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>395</v>
@@ -5391,19 +5391,19 @@
         <v>418430</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>378229</v>
+        <v>378415</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>456570</v>
+        <v>458373</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1187564873483247</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1073469266313235</v>
+        <v>0.1073997454621894</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.129581320155509</v>
+        <v>0.1300930462070378</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>936</v>
@@ -5412,19 +5412,19 @@
         <v>972323</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>917411</v>
+        <v>914748</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1032542</v>
+        <v>1033233</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1404588808906418</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1325264640453905</v>
+        <v>0.1321416972654798</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1491578952323427</v>
+        <v>0.1492576719085045</v>
       </c>
     </row>
     <row r="34">
@@ -5441,19 +5441,19 @@
         <v>44012</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01294835339003059</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>53</v>
@@ -5462,19 +5462,19 @@
         <v>56260</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01596744627020621</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>95</v>
@@ -5483,19 +5483,19 @@
         <v>100272</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01448502263539287</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
     </row>
     <row r="35">
@@ -5830,19 +5830,19 @@
         <v>314551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>295220</v>
+        <v>297408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331395</v>
+        <v>332026</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.758298272375706</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7116965914113067</v>
+        <v>0.7169704514699721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7989037905582831</v>
+        <v>0.8004250958998437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>305</v>
@@ -5851,19 +5851,19 @@
         <v>297634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>280078</v>
+        <v>279305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>313251</v>
+        <v>313200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7540223197535258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7095451297967295</v>
+        <v>0.7075868554851725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7935849605890581</v>
+        <v>0.7934548654261232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>603</v>
@@ -5872,19 +5872,19 @@
         <v>612186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>588266</v>
+        <v>586697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>635359</v>
+        <v>638166</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7562133352897715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7266657011459096</v>
+        <v>0.724727505140935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7848378307797869</v>
+        <v>0.7883055216504388</v>
       </c>
     </row>
     <row r="5">
@@ -5901,19 +5901,19 @@
         <v>93672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77263</v>
+        <v>77224</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112857</v>
+        <v>111329</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2258188691745414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1862608985960429</v>
+        <v>0.1861653653189811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2720682532212054</v>
+        <v>0.2683851475703588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -5922,19 +5922,19 @@
         <v>84871</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70135</v>
+        <v>69511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101091</v>
+        <v>101846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2150097864188018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1776791471583206</v>
+        <v>0.1760968537538636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2561023817023661</v>
+        <v>0.2580140153012446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>172</v>
@@ -5943,19 +5943,19 @@
         <v>178543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155589</v>
+        <v>154516</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201099</v>
+        <v>202931</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2205484044398582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1921934539411276</v>
+        <v>0.1908683026801313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2484107683028624</v>
+        <v>0.2506736751425209</v>
       </c>
     </row>
     <row r="6">
@@ -5972,19 +5972,19 @@
         <v>6588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2329</v>
+        <v>2455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17055</v>
+        <v>17133</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01588285844975253</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005613448401450776</v>
+        <v>0.005918709960982796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04111572607810281</v>
+        <v>0.04130380336734121</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -5993,19 +5993,19 @@
         <v>12224</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6762</v>
+        <v>6384</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20614</v>
+        <v>21275</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0309678938276723</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01713038497246673</v>
+        <v>0.01617308164938461</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05222220974261283</v>
+        <v>0.05389849178283218</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -6014,19 +6014,19 @@
         <v>18812</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11031</v>
+        <v>11061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29681</v>
+        <v>29020</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02323826027037037</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01362646854516272</v>
+        <v>0.01366345447974257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03666357280557654</v>
+        <v>0.03584745129354969</v>
       </c>
     </row>
     <row r="7">
@@ -6118,19 +6118,19 @@
         <v>475784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455380</v>
+        <v>454623</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493128</v>
+        <v>493662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8129177318224469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7780555929402572</v>
+        <v>0.7767617207986224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8425511897831249</v>
+        <v>0.8434628694773646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -6139,19 +6139,19 @@
         <v>437456</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415811</v>
+        <v>416681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>455378</v>
+        <v>457122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7775552807241934</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7390837588047281</v>
+        <v>0.7406300930445756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8094116857678275</v>
+        <v>0.8125109368529108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -6160,19 +6160,19 @@
         <v>913240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884426</v>
+        <v>886559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>939738</v>
+        <v>939613</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7955857906264967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7704836935837451</v>
+        <v>0.7723421622726897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8186697617698404</v>
+        <v>0.8185608806041003</v>
       </c>
     </row>
     <row r="9">
@@ -6189,19 +6189,19 @@
         <v>102439</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>85535</v>
+        <v>85920</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121551</v>
+        <v>123311</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1750250913075399</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1461437517036724</v>
+        <v>0.1468008875400856</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2076797093199173</v>
+        <v>0.2106868140808658</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -6210,19 +6210,19 @@
         <v>118632</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100561</v>
+        <v>99080</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>139158</v>
+        <v>137771</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.210861711898651</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.178742731834637</v>
+        <v>0.1761101968671352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2473463180918322</v>
+        <v>0.2448814439157289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>220</v>
@@ -6231,19 +6231,19 @@
         <v>221070</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>196176</v>
+        <v>195870</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>250256</v>
+        <v>247084</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1925894337514774</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1709024830369348</v>
+        <v>0.1706358511334803</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2180148530672878</v>
+        <v>0.2152513052971983</v>
       </c>
     </row>
     <row r="10">
@@ -6260,19 +6260,19 @@
         <v>7057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2958</v>
+        <v>2881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13918</v>
+        <v>13969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01205717687001317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005053536586331842</v>
+        <v>0.004922399636099153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02378049145779586</v>
+        <v>0.02386643132280881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -6281,7 +6281,7 @@
         <v>6517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2801</v>
+        <v>2750</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>13084</v>
@@ -6290,10 +6290,10 @@
         <v>0.01158300737715563</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004978431235052332</v>
+        <v>0.004888300717509638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02325685308429428</v>
+        <v>0.02325599041021136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -6302,19 +6302,19 @@
         <v>13573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8199</v>
+        <v>7535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22386</v>
+        <v>22563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01182477562202597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007142436331693093</v>
+        <v>0.006564254099930335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01950167177939444</v>
+        <v>0.01965576568661448</v>
       </c>
     </row>
     <row r="11">
@@ -6406,19 +6406,19 @@
         <v>583727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>566623</v>
+        <v>563993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>600835</v>
+        <v>600225</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8763440776204641</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8506671733224478</v>
+        <v>0.8467186322626808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9020294071498104</v>
+        <v>0.9011122701683757</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>573</v>
@@ -6427,19 +6427,19 @@
         <v>568781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>550137</v>
+        <v>550919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>584812</v>
+        <v>583768</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8659937396790215</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8376072751420541</v>
+        <v>0.8387977925047999</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8904010331242548</v>
+        <v>0.88881189623779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1129</v>
@@ -6448,19 +6448,19 @@
         <v>1152508</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1126052</v>
+        <v>1125600</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1175021</v>
+        <v>1173087</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8712052776738241</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8512065607292381</v>
+        <v>0.8508647262663239</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8882234283168248</v>
+        <v>0.8867616473051264</v>
       </c>
     </row>
     <row r="13">
@@ -6477,19 +6477,19 @@
         <v>75768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60106</v>
+        <v>60083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93250</v>
+        <v>95208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1137502879455473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09023705280636998</v>
+        <v>0.09020160596599903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1399959457019475</v>
+        <v>0.1429348914761079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -6498,19 +6498,19 @@
         <v>85135</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69551</v>
+        <v>70244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104345</v>
+        <v>102964</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1296220181185715</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1058944397404777</v>
+        <v>0.1069500692442361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1588692962744493</v>
+        <v>0.1567672926552375</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -6519,19 +6519,19 @@
         <v>160903</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139616</v>
+        <v>139988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187036</v>
+        <v>186274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1216303829364219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1055385399485331</v>
+        <v>0.1058198470247967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1413848081725395</v>
+        <v>0.14080832117713</v>
       </c>
     </row>
     <row r="14">
@@ -6548,19 +6548,19 @@
         <v>6598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2840</v>
+        <v>2794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13257</v>
+        <v>13044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009905634433988659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004263799120716275</v>
+        <v>0.004194941431745199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01990265115534968</v>
+        <v>0.01958342632253843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6569,19 +6569,19 @@
         <v>2880</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8335</v>
+        <v>7876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004384242202407062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001342227082670423</v>
+        <v>0.001352620446728138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01269114910902036</v>
+        <v>0.0119919607743163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -6590,19 +6590,19 @@
         <v>9478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4717</v>
+        <v>4665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17268</v>
+        <v>17064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007164339389754063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003565823214747351</v>
+        <v>0.003526305264373572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01305298376545975</v>
+        <v>0.01289912749771531</v>
       </c>
     </row>
     <row r="15">
@@ -6694,19 +6694,19 @@
         <v>564689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>546711</v>
+        <v>545846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>580483</v>
+        <v>580867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8783790135450932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8504146709637251</v>
+        <v>0.8490696092225313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9029464038068389</v>
+        <v>0.9035437274106575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>530</v>
@@ -6715,19 +6715,19 @@
         <v>571009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>553356</v>
+        <v>554226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>586626</v>
+        <v>585974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8884430213679355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8609750665080607</v>
+        <v>0.862329049169333</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9127416337576774</v>
+        <v>0.9117266109451078</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1037</v>
@@ -6736,19 +6736,19 @@
         <v>1135698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1113800</v>
+        <v>1112842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1160637</v>
+        <v>1160301</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8834103571406025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.86637646522622</v>
+        <v>0.8656317570892135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9028095093535639</v>
+        <v>0.902548087538994</v>
       </c>
     </row>
     <row r="17">
@@ -6765,19 +6765,19 @@
         <v>76099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60546</v>
+        <v>60901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94024</v>
+        <v>94968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1183730278283614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09417932276389034</v>
+        <v>0.09473283684940312</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1462550642525727</v>
+        <v>0.1477244378067509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -6786,19 +6786,19 @@
         <v>61732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46802</v>
+        <v>47522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77720</v>
+        <v>78214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09604939768540399</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0728192791658152</v>
+        <v>0.07393952222151071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1209256563678361</v>
+        <v>0.1216945696284427</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -6807,19 +6807,19 @@
         <v>137831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113429</v>
+        <v>114252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>158961</v>
+        <v>159941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1072126774465424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08823154319759445</v>
+        <v>0.08887203178503317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1236491456386924</v>
+        <v>0.1244115372720784</v>
       </c>
     </row>
     <row r="18">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6724</v>
+        <v>7249</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003247958626545459</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01045916970488445</v>
+        <v>0.01127578632192649</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -6857,19 +6857,19 @@
         <v>9967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4451</v>
+        <v>4759</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18283</v>
+        <v>18230</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01550758094666047</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.006926090257890778</v>
+        <v>0.007404089291372358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02844627655239405</v>
+        <v>0.02836413114413779</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -6878,19 +6878,19 @@
         <v>12055</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6283</v>
+        <v>6725</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21550</v>
+        <v>21596</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.009376965412855065</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004887259887531231</v>
+        <v>0.005231009490201251</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01676246271378434</v>
+        <v>0.01679857643588827</v>
       </c>
     </row>
     <row r="19">
@@ -6982,19 +6982,19 @@
         <v>423944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>408635</v>
+        <v>410716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>436156</v>
+        <v>436793</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8935515289790738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8612845573925952</v>
+        <v>0.8656713336732514</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.919292005301297</v>
+        <v>0.9206332209814865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>385</v>
@@ -7003,19 +7003,19 @@
         <v>441273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>426259</v>
+        <v>426117</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454404</v>
+        <v>454706</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.894665715959624</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8642255262999797</v>
+        <v>0.8639361780557702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9212869569897857</v>
+        <v>0.9219000035706117</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>762</v>
@@ -7024,19 +7024,19 @@
         <v>865218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>842527</v>
+        <v>843190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>883108</v>
+        <v>883874</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8941194337548847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8706709332009813</v>
+        <v>0.8713561655814579</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9126069637053403</v>
+        <v>0.9133991288376828</v>
       </c>
     </row>
     <row r="21">
@@ -7053,19 +7053,19 @@
         <v>46469</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34465</v>
+        <v>34812</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60582</v>
+        <v>59999</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09794333592885539</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0726429868265954</v>
+        <v>0.07337437101779917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1276888652836761</v>
+        <v>0.1264598287517556</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -7074,19 +7074,19 @@
         <v>47301</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34940</v>
+        <v>34035</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62607</v>
+        <v>63008</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09590025348568219</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07083902405739553</v>
+        <v>0.06900422291378329</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1269327817346679</v>
+        <v>0.1277464359673176</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -7095,19 +7095,19 @@
         <v>93770</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>76434</v>
+        <v>75892</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116793</v>
+        <v>114963</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09690197007455287</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07898749445767501</v>
+        <v>0.07842658656430726</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1206947053696863</v>
+        <v>0.118803444450492</v>
       </c>
     </row>
     <row r="22">
@@ -7124,19 +7124,19 @@
         <v>4035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11136</v>
+        <v>10137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008505135092070895</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002177742321132403</v>
+        <v>0.002197218955760097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02347182653701072</v>
+        <v>0.02136641445239786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -7145,19 +7145,19 @@
         <v>4653</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10595</v>
+        <v>10865</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00943403055469379</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002376937253957186</v>
+        <v>0.002379384393928645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02147997152711009</v>
+        <v>0.02202826776671611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -7166,19 +7166,19 @@
         <v>8688</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3388</v>
+        <v>3436</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17725</v>
+        <v>16317</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008978596170562493</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003501233029655422</v>
+        <v>0.003550880980453325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01831757932078927</v>
+        <v>0.016862398345108</v>
       </c>
     </row>
     <row r="23">
@@ -7270,19 +7270,19 @@
         <v>308803</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>297879</v>
+        <v>298369</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>317037</v>
+        <v>316081</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9372446306459485</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9040867529056491</v>
+        <v>0.9055742997202298</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.962233026527349</v>
+        <v>0.9593334847951266</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>322</v>
@@ -7291,19 +7291,19 @@
         <v>343565</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>331096</v>
+        <v>331535</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>352649</v>
+        <v>352894</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9217103397184897</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8882598780539096</v>
+        <v>0.8894374201757483</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9460813642742952</v>
+        <v>0.9467400103411107</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>624</v>
@@ -7312,19 +7312,19 @@
         <v>652368</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>637175</v>
+        <v>637007</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>664290</v>
+        <v>664910</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9289989181315956</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9073635544459467</v>
+        <v>0.9071235513438857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9459759187794899</v>
+        <v>0.9468584700846533</v>
       </c>
     </row>
     <row r="25">
@@ -7341,19 +7341,19 @@
         <v>17913</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10237</v>
+        <v>11043</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28237</v>
+        <v>27219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05436880824351582</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03107086650005191</v>
+        <v>0.03351531039972249</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08570111559197169</v>
+        <v>0.08261246286028598</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7362,19 +7362,19 @@
         <v>27164</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18686</v>
+        <v>18442</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39617</v>
+        <v>37905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07287393697969199</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05012954627234054</v>
+        <v>0.04947712568579288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1062850520751635</v>
+        <v>0.1016900838428241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -7383,19 +7383,19 @@
         <v>45077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33187</v>
+        <v>33464</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59800</v>
+        <v>59956</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06419146267377904</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04726028667743007</v>
+        <v>0.04765419043960334</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08515822569948125</v>
+        <v>0.08537989859730373</v>
       </c>
     </row>
     <row r="26">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10759</v>
+        <v>9927</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00838656111053559</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03265395293645374</v>
+        <v>0.0301281512938769</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6173</v>
+        <v>7083</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005415723301818258</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01656071223036641</v>
+        <v>0.01900200285820888</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -7454,19 +7454,19 @@
         <v>4782</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11989</v>
+        <v>12316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006809619194625379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001456021096112596</v>
+        <v>0.00146234582778103</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01707309573810441</v>
+        <v>0.01753864095654883</v>
       </c>
     </row>
     <row r="27">
@@ -7558,19 +7558,19 @@
         <v>240618</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231904</v>
+        <v>231862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>245989</v>
+        <v>245841</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.953767676446208</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9192258033799572</v>
+        <v>0.9190571340809903</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9750540244936347</v>
+        <v>0.9744701788059816</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>287</v>
@@ -7579,19 +7579,19 @@
         <v>381042</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>370779</v>
+        <v>372000</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>387788</v>
+        <v>387622</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9636981185768432</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9377418509209058</v>
+        <v>0.9408279113821109</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.980757908031232</v>
+        <v>0.9803391238798589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>572</v>
@@ -7600,19 +7600,19 @@
         <v>621662</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>609421</v>
+        <v>609801</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>630949</v>
+        <v>630912</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9598300351728855</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9409304286654478</v>
+        <v>0.9415166066903988</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9741687873044912</v>
+        <v>0.97411162857098</v>
       </c>
     </row>
     <row r="29">
@@ -7629,19 +7629,19 @@
         <v>9990</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5397</v>
+        <v>4766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18559</v>
+        <v>17716</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03959842928058194</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02139101848220555</v>
+        <v>0.01888957946158516</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07356609024218798</v>
+        <v>0.07022290503622983</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -7650,19 +7650,19 @@
         <v>13089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6506</v>
+        <v>6507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>22499</v>
+        <v>21152</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03310442652863849</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.016453277116021</v>
+        <v>0.01645692687003637</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05690230819104605</v>
+        <v>0.05349598511136514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -7671,19 +7671,19 @@
         <v>23079</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14417</v>
+        <v>14317</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34099</v>
+        <v>34538</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03563395582246071</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02225983619206823</v>
+        <v>0.02210487291171096</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05264798864549194</v>
+        <v>0.0533252829275154</v>
       </c>
     </row>
     <row r="30">
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6057</v>
+        <v>5984</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006633894273210068</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02400833327472166</v>
+        <v>0.02371956291542288</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6394</v>
+        <v>6314</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003197454894518337</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01617146591894573</v>
+        <v>0.01596841263059268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -7742,19 +7742,19 @@
         <v>2938</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8014</v>
+        <v>8930</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004536009004653812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001204658476754553</v>
+        <v>0.001197539986343606</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01237310054525927</v>
+        <v>0.0137882451533919</v>
       </c>
     </row>
     <row r="31">
@@ -7846,19 +7846,19 @@
         <v>2912118</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2852</v>
@@ -7867,19 +7867,19 @@
         <v>3040762</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5633</v>
@@ -7888,19 +7888,19 @@
         <v>5952880</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="33">
@@ -7917,19 +7917,19 @@
         <v>422351</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>385239</v>
+        <v>381299</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>460895</v>
+        <v>459639</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1255028037162237</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.114474839136572</v>
+        <v>0.1133039396750497</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1369562686319775</v>
+        <v>0.1365831417527266</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>425</v>
@@ -7938,19 +7938,19 @@
         <v>437923</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>399195</v>
+        <v>397031</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>477885</v>
+        <v>478715</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1244732463804969</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1134655133254803</v>
+        <v>0.1128503676129982</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1358319605861917</v>
+        <v>0.136067941502483</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>820</v>
@@ -7959,19 +7959,19 @@
         <v>860274</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>804554</v>
+        <v>805881</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>914537</v>
+        <v>919396</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1249765877845921</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.116881931419496</v>
+        <v>0.1170746904492276</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1328596817914605</v>
+        <v>0.1335656215522734</v>
       </c>
     </row>
     <row r="34">
@@ -7988,19 +7988,19 @@
         <v>30803</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009153317402555273</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>38</v>
@@ -8009,19 +8009,19 @@
         <v>39523</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01123385923524316</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>66</v>
@@ -8030,19 +8030,19 @@
         <v>70326</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01021670087892437</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
     </row>
     <row r="35">
@@ -8377,19 +8377,19 @@
         <v>319886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>288453</v>
+        <v>288762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344121</v>
+        <v>345106</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7844335043329396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7073514534028897</v>
+        <v>0.7081090771335122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8438622785858703</v>
+        <v>0.8462779258769136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -8398,19 +8398,19 @@
         <v>285936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>262307</v>
+        <v>263959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>305174</v>
+        <v>304951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7887625476932885</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7235827125099377</v>
+        <v>0.7281380087553408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8418302894811668</v>
+        <v>0.8412176547973809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -8419,19 +8419,19 @@
         <v>605822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>569041</v>
+        <v>568930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>636965</v>
+        <v>636207</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7864707882420696</v>
+        <v>0.7864707882420693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7387215602299946</v>
+        <v>0.7385777224475494</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8269002165108119</v>
+        <v>0.8259151826221772</v>
       </c>
     </row>
     <row r="5">
@@ -8448,19 +8448,19 @@
         <v>81723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58105</v>
+        <v>57757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114799</v>
+        <v>112393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2004027663033604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1424862032901244</v>
+        <v>0.1416319239917783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2815118016718082</v>
+        <v>0.2756140198983462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -8469,19 +8469,19 @@
         <v>69144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50578</v>
+        <v>50736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90659</v>
+        <v>91076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1907349273041845</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1395217679949638</v>
+        <v>0.1399574625413586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2500849828882866</v>
+        <v>0.2512350614140536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -8490,19 +8490,19 @@
         <v>150867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122100</v>
+        <v>120747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189015</v>
+        <v>186585</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1958530006416247</v>
+        <v>0.1958530006416248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.158509053182132</v>
+        <v>0.1567520209490462</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2453766721330312</v>
+        <v>0.2422221588001673</v>
       </c>
     </row>
     <row r="6">
@@ -8519,19 +8519,19 @@
         <v>6184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17991</v>
+        <v>20111</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01516372936370008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003204386848705006</v>
+        <v>0.003185571728986721</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04411768500286117</v>
+        <v>0.04931746545083997</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -8540,19 +8540,19 @@
         <v>7432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1868</v>
+        <v>2186</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17686</v>
+        <v>18059</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02050252500252709</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005153103669351068</v>
+        <v>0.00602964396166355</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04878858491338931</v>
+        <v>0.04981604869051884</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -8561,19 +8561,19 @@
         <v>13616</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5811</v>
+        <v>5632</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27468</v>
+        <v>27618</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01767621111630579</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007543853815478224</v>
+        <v>0.007311031376248503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0356588003738601</v>
+        <v>0.03585292277603423</v>
       </c>
     </row>
     <row r="7">
@@ -8665,19 +8665,19 @@
         <v>349578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323065</v>
+        <v>323507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>373223</v>
+        <v>372929</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7330361076795638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6774413984111727</v>
+        <v>0.6783684635001067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7826191391675777</v>
+        <v>0.782002035310897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -8686,19 +8686,19 @@
         <v>402511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383053</v>
+        <v>380568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419642</v>
+        <v>418367</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8055940935627266</v>
+        <v>0.8055940935627264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7666507770988856</v>
+        <v>0.7616773199294955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8398808002668227</v>
+        <v>0.8373277685336372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>599</v>
@@ -8707,19 +8707,19 @@
         <v>752089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718817</v>
+        <v>716773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>782900</v>
+        <v>779742</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7701604661642041</v>
+        <v>0.7701604661642042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7360896946670847</v>
+        <v>0.7339964161631951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8017124913205197</v>
+        <v>0.7984778281366824</v>
       </c>
     </row>
     <row r="9">
@@ -8736,19 +8736,19 @@
         <v>117743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94961</v>
+        <v>94651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>144424</v>
+        <v>142451</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2468982753256695</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1991264811020221</v>
+        <v>0.1984751915716469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3028445971615102</v>
+        <v>0.2987078016667153</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -8757,19 +8757,19 @@
         <v>85369</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69787</v>
+        <v>69596</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104205</v>
+        <v>105622</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.170859075359574</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1396722168105203</v>
+        <v>0.1392908993110647</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2085577293119336</v>
+        <v>0.2113941303145596</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>147</v>
@@ -8778,19 +8778,19 @@
         <v>203112</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>173755</v>
+        <v>175659</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>235838</v>
+        <v>233669</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2079927505365415</v>
+        <v>0.2079927505365416</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1779305980444416</v>
+        <v>0.1798802925779807</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2415050475858132</v>
+        <v>0.2392834995518487</v>
       </c>
     </row>
     <row r="10">
@@ -8807,19 +8807,19 @@
         <v>9569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3363</v>
+        <v>3450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22235</v>
+        <v>23269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0200656169947667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007051286132728423</v>
+        <v>0.00723491894292435</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.046625673939538</v>
+        <v>0.04879256901524347</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -8828,19 +8828,19 @@
         <v>11765</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5531</v>
+        <v>6002</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20844</v>
+        <v>22782</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02354683107769957</v>
+        <v>0.02354683107769956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0110695407743832</v>
+        <v>0.01201192906557746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04171663914815343</v>
+        <v>0.04559564623306767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -8849,19 +8849,19 @@
         <v>21334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11859</v>
+        <v>12186</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36406</v>
+        <v>35062</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02184678329925432</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01214386839176502</v>
+        <v>0.01247909294070033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03728054422303879</v>
+        <v>0.03590480759407189</v>
       </c>
     </row>
     <row r="11">
@@ -8953,19 +8953,19 @@
         <v>489044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>466619</v>
+        <v>465840</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>509467</v>
+        <v>509128</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7926286567029267</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7562834683194746</v>
+        <v>0.7550206748724497</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8257290979791723</v>
+        <v>0.8251805673871864</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>721</v>
@@ -8974,19 +8974,19 @@
         <v>524759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>509821</v>
+        <v>508250</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>540322</v>
+        <v>539962</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8434758181508251</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8194652435152942</v>
+        <v>0.8169399295124455</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8684909349991918</v>
+        <v>0.8679120256685647</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1158</v>
@@ -8995,19 +8995,19 @@
         <v>1013803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>987704</v>
+        <v>987630</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1039038</v>
+        <v>1042549</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8181578931765378</v>
+        <v>0.8181578931765379</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7970957607573126</v>
+        <v>0.7970353278187853</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8385226204096869</v>
+        <v>0.8413566707747563</v>
       </c>
     </row>
     <row r="13">
@@ -9024,19 +9024,19 @@
         <v>115876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94874</v>
+        <v>97194</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136519</v>
+        <v>139052</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1878081847415009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1537685199651729</v>
+        <v>0.1575294198346001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2212669560134943</v>
+        <v>0.2253713747081829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -9045,19 +9045,19 @@
         <v>86171</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71579</v>
+        <v>71593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100968</v>
+        <v>101593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1385076325143234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1150535212486756</v>
+        <v>0.1150758514308498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1622915839384489</v>
+        <v>0.1632960304336767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -9066,19 +9066,19 @@
         <v>202047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177880</v>
+        <v>176004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>229675</v>
+        <v>226692</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1630554665907171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1435521036573767</v>
+        <v>0.142038606326456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1853522150976747</v>
+        <v>0.1829450309007321</v>
       </c>
     </row>
     <row r="14">
@@ -9095,19 +9095,19 @@
         <v>12070</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6183</v>
+        <v>6189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22435</v>
+        <v>20892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01956315855557222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01002187796060976</v>
+        <v>0.01003069588166409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0363615416332274</v>
+        <v>0.03386168357536598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -9116,19 +9116,19 @@
         <v>11209</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6154</v>
+        <v>6300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18930</v>
+        <v>18207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01801654933485151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009891970508166975</v>
+        <v>0.01012643830639192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03042726784411787</v>
+        <v>0.02926523242981924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -9137,19 +9137,19 @@
         <v>23279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14951</v>
+        <v>14910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33805</v>
+        <v>34727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01878664023274501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01206559673823521</v>
+        <v>0.01203304259689768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02728103104487115</v>
+        <v>0.02802526456684298</v>
       </c>
     </row>
     <row r="15">
@@ -9241,19 +9241,19 @@
         <v>589361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>566646</v>
+        <v>566478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>607255</v>
+        <v>607740</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8426312560280983</v>
+        <v>0.8426312560280986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8101550555670514</v>
+        <v>0.8099144456429472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8682150205485254</v>
+        <v>0.8689081831531155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>989</v>
@@ -9262,19 +9262,19 @@
         <v>632525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>616438</v>
+        <v>617636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>646276</v>
+        <v>648356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8606067579943939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8387187434101673</v>
+        <v>0.8403481558984582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8793155751363301</v>
+        <v>0.8821456870228132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1555</v>
@@ -9283,19 +9283,19 @@
         <v>1221886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1197220</v>
+        <v>1195797</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1248573</v>
+        <v>1242927</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8518417432394257</v>
+        <v>0.8518417432394255</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8346459246089492</v>
+        <v>0.8336540198819706</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8704467320399032</v>
+        <v>0.8665107042979633</v>
       </c>
     </row>
     <row r="17">
@@ -9312,19 +9312,19 @@
         <v>94867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77487</v>
+        <v>77604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115156</v>
+        <v>114425</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1356356091617707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1107854900706484</v>
+        <v>0.1109532516338819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1646427464624171</v>
+        <v>0.1635970375905673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>129</v>
@@ -9333,19 +9333,19 @@
         <v>88577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75290</v>
+        <v>74238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103544</v>
+        <v>103162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1205164973220165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1024390794756226</v>
+        <v>0.1010078462210648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1408807760373892</v>
+        <v>0.140360870217934</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>215</v>
@@ -9354,19 +9354,19 @@
         <v>183444</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>159485</v>
+        <v>162277</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>206049</v>
+        <v>209481</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1278887108271491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1111857690245541</v>
+        <v>0.1131316738121965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1436478057077381</v>
+        <v>0.1460403091715475</v>
       </c>
     </row>
     <row r="18">
@@ -9383,19 +9383,19 @@
         <v>15201</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7770</v>
+        <v>7857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25649</v>
+        <v>26014</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0217331348101308</v>
+        <v>0.02173313481013081</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01110964759420047</v>
+        <v>0.01123363754402714</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03667203923259151</v>
+        <v>0.03719376675094805</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -9404,19 +9404,19 @@
         <v>13874</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8880</v>
+        <v>9070</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20952</v>
+        <v>20709</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01887674468358964</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01208225198181741</v>
+        <v>0.01234070131926952</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02850725422168735</v>
+        <v>0.02817696378680808</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -9425,19 +9425,19 @@
         <v>29075</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20294</v>
+        <v>20274</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40427</v>
+        <v>41380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02026954593342527</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01414800443894258</v>
+        <v>0.01413413282743243</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02818408019504178</v>
+        <v>0.02884787065307855</v>
       </c>
     </row>
     <row r="19">
@@ -9529,19 +9529,19 @@
         <v>527284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>507785</v>
+        <v>510054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>541354</v>
+        <v>541883</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8668220559024037</v>
+        <v>0.8668220559024039</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8347670903133912</v>
+        <v>0.8384965182642401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8899520837508755</v>
+        <v>0.8908212386649909</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>887</v>
@@ -9550,19 +9550,19 @@
         <v>536450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>523442</v>
+        <v>523530</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>548891</v>
+        <v>548144</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8820020220400346</v>
+        <v>0.8820020220400345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8606149504154709</v>
+        <v>0.8607587025411932</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9024554421723319</v>
+        <v>0.9012281303994404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1461</v>
@@ -9571,19 +9571,19 @@
         <v>1063735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1043603</v>
+        <v>1045603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1083575</v>
+        <v>1084633</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8744115527777933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8578629484582724</v>
+        <v>0.8595066537611119</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8907203183562631</v>
+        <v>0.8915900084811588</v>
       </c>
     </row>
     <row r="21">
@@ -9600,19 +9600,19 @@
         <v>68267</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54688</v>
+        <v>54934</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84120</v>
+        <v>82891</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1122263652015816</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08990351887101267</v>
+        <v>0.090308233323514</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1382880755627019</v>
+        <v>0.1362669489298506</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -9621,19 +9621,19 @@
         <v>62895</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>51485</v>
+        <v>52015</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>75574</v>
+        <v>74262</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1034078986409924</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08464853792899606</v>
+        <v>0.08552058487340299</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1242538566123889</v>
+        <v>0.1220971298929825</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>175</v>
@@ -9642,19 +9642,19 @@
         <v>131162</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>113685</v>
+        <v>113404</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>149847</v>
+        <v>150058</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1078174143646356</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09345156061608521</v>
+        <v>0.09322054939168262</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1231772391622462</v>
+        <v>0.1233505350268681</v>
       </c>
     </row>
     <row r="22">
@@ -9671,19 +9671,19 @@
         <v>12745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6855</v>
+        <v>7062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21367</v>
+        <v>21319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02095157889601458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01126865367046437</v>
+        <v>0.01160997452632251</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03512665436715581</v>
+        <v>0.03504640696459761</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -9692,19 +9692,19 @@
         <v>8874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5162</v>
+        <v>5077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14373</v>
+        <v>14188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01459007931897298</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008486299647305514</v>
+        <v>0.00834691163778899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0236319252965426</v>
+        <v>0.02332790803003977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -9713,19 +9713,19 @@
         <v>21619</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14864</v>
+        <v>14920</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30790</v>
+        <v>30463</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01777103285757103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0122185722072688</v>
+        <v>0.01226460299239533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02531015976203174</v>
+        <v>0.02504096314793291</v>
       </c>
     </row>
     <row r="23">
@@ -9817,19 +9817,19 @@
         <v>365761</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>354089</v>
+        <v>354737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>374943</v>
+        <v>374820</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9008574840091605</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8721098558021102</v>
+        <v>0.8737055677991573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9234733725133504</v>
+        <v>0.9231689518046928</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>766</v>
@@ -9838,19 +9838,19 @@
         <v>408268</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>400344</v>
+        <v>400810</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>415721</v>
+        <v>415681</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9309316898816027</v>
+        <v>0.9309316898816028</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9128637515672607</v>
+        <v>0.9139267504722102</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.947926703022447</v>
+        <v>0.9478350091827075</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1278</v>
@@ -9859,19 +9859,19 @@
         <v>774027</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>760608</v>
+        <v>761588</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>786210</v>
+        <v>785828</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.916474016471283</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9005845161777728</v>
+        <v>0.9017452626392917</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9308987332901542</v>
+        <v>0.9304458167551761</v>
       </c>
     </row>
     <row r="25">
@@ -9888,19 +9888,19 @@
         <v>37360</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28476</v>
+        <v>28689</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49362</v>
+        <v>48648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09201745330376737</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07013476580467047</v>
+        <v>0.07065983436142134</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1215780214302165</v>
+        <v>0.1198182968889385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -9909,19 +9909,19 @@
         <v>27010</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20369</v>
+        <v>20735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34923</v>
+        <v>35030</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06158739021713008</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04644461812551429</v>
+        <v>0.04728028623139764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07963186484175662</v>
+        <v>0.07987633324844802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -9930,19 +9930,19 @@
         <v>64370</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52202</v>
+        <v>53341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>76698</v>
+        <v>76864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07621613605427824</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06180834953191811</v>
+        <v>0.06315700235186554</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09081257186691798</v>
+        <v>0.09100960832725977</v>
       </c>
     </row>
     <row r="26">
@@ -9959,19 +9959,19 @@
         <v>2893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>871</v>
+        <v>591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7085</v>
+        <v>7648</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007125062687072141</v>
+        <v>0.007125062687072139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002146427306999455</v>
+        <v>0.001455901797677107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01745046245118101</v>
+        <v>0.01883794248991818</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -9980,19 +9980,19 @@
         <v>3281</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1411</v>
+        <v>1263</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6946</v>
+        <v>6978</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.007480919901267157</v>
+        <v>0.007480919901267156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003217753177123347</v>
+        <v>0.002879156836605878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01583769311697265</v>
+        <v>0.01591127048812574</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -10001,19 +10001,19 @@
         <v>6174</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2864</v>
+        <v>3107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11303</v>
+        <v>11468</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007309847474438688</v>
+        <v>0.007309847474438686</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003391502706594553</v>
+        <v>0.003678386573574222</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01338289978478424</v>
+        <v>0.0135781698038714</v>
       </c>
     </row>
     <row r="27">
@@ -10105,19 +10105,19 @@
         <v>286154</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>277814</v>
+        <v>277290</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>292915</v>
+        <v>293139</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9235090692817911</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8965949246792325</v>
+        <v>0.8949025707893085</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.945329872486426</v>
+        <v>0.9460529095933117</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>835</v>
@@ -10126,19 +10126,19 @@
         <v>442820</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>434509</v>
+        <v>434747</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>448656</v>
+        <v>448774</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9531025099175292</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9352144700216007</v>
+        <v>0.9357275309877141</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.965663675182608</v>
+        <v>0.9659169041138677</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1254</v>
@@ -10147,19 +10147,19 @@
         <v>728974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>717672</v>
+        <v>717012</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>737831</v>
+        <v>738010</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9412624809319469</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9266692002389281</v>
+        <v>0.9258168102273816</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9526988096084387</v>
+        <v>0.952930584859117</v>
       </c>
     </row>
     <row r="29">
@@ -10176,19 +10176,19 @@
         <v>22156</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15874</v>
+        <v>15608</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30407</v>
+        <v>30708</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07150487700017233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05122965461308655</v>
+        <v>0.05037081702510939</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09813334005662895</v>
+        <v>0.09910355728631697</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -10197,19 +10197,19 @@
         <v>20797</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15174</v>
+        <v>15110</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28942</v>
+        <v>28867</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04476304880314306</v>
+        <v>0.04476304880314305</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03265929848530327</v>
+        <v>0.03252161660084259</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06229277679007144</v>
+        <v>0.06213204045627384</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>79</v>
@@ -10218,19 +10218,19 @@
         <v>42953</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34450</v>
+        <v>34473</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54705</v>
+        <v>55359</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05546217719708606</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04448219261490819</v>
+        <v>0.04451252863118937</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07063536534573069</v>
+        <v>0.07147978324382349</v>
       </c>
     </row>
     <row r="30">
@@ -10247,19 +10247,19 @@
         <v>1545</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4728</v>
+        <v>4623</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00498605371803657</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001255978859877251</v>
+        <v>0.001262585771628584</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01525997271798789</v>
+        <v>0.01491886851840418</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3233</v>
+        <v>3644</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002134441279327803</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006958080161543615</v>
+        <v>0.007842294903181498</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -10289,19 +10289,19 @@
         <v>2537</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6374</v>
+        <v>5771</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003275341870967209</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001071024081856285</v>
+        <v>0.001048288515326289</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008230595085977319</v>
+        <v>0.007451401954614755</v>
       </c>
     </row>
     <row r="31">
@@ -10393,19 +10393,19 @@
         <v>2927068</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4731</v>
@@ -10414,19 +10414,19 @@
         <v>3233269</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7601</v>
@@ -10435,19 +10435,19 @@
         <v>6160337</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="33">
@@ -10464,19 +10464,19 @@
         <v>537993</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>490276</v>
+        <v>493035</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>584571</v>
+        <v>588093</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1526105147462347</v>
+        <v>0.1526105147462346</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1390748030809322</v>
+        <v>0.1398575833334949</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1658232797748735</v>
+        <v>0.166822161472444</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>557</v>
@@ -10485,19 +10485,19 @@
         <v>439962</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>405209</v>
+        <v>403417</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>479270</v>
+        <v>477639</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1179314695839762</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1086160135844073</v>
+        <v>0.1081356807936664</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1284678515871077</v>
+        <v>0.1280307127063859</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1006</v>
@@ -10506,19 +10506,19 @@
         <v>977955</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>911584</v>
+        <v>918112</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1038266</v>
+        <v>1048146</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1347801673231787</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1256329846118694</v>
+        <v>0.1265327512480832</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1430922064931723</v>
+        <v>0.1444538461672995</v>
       </c>
     </row>
     <row r="34">
@@ -10535,19 +10535,19 @@
         <v>60206</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01707853829723725</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>70</v>
@@ -10556,19 +10556,19 @@
         <v>57427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01539317989748721</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>120</v>
@@ -10577,19 +10577,19 @@
         <v>117633</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="35">
